--- a/Data/data.xlsx
+++ b/Data/data.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\GIT\lab-3-dynamic-programming-melland55\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\GIT\lab-3-dynamic-programming-melland55\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5573353-8A22-4993-8FD9-A9E1AC07FBA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F6B040-E223-4618-A0CD-29AD28BD2636}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
   <si>
     <t>Number of Nodes</t>
   </si>
@@ -33,11 +43,17 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>O(n!)</t>
+  </si>
+  <si>
+    <t>O(n^2 * 2^n)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -562,7 +578,14 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1104,7 +1127,2550 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Naive Algorithm</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>test!$A$2:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>test!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>test!$B$2:$B$21</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>test!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.967000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>106.251</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024.807</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14348.405000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>138930.19899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-55ED-46BB-B72A-8B62DDAE2AE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2032566240"/>
+        <c:axId val="1873931104"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2032566240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Nodes in Graph</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1873931104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1873931104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Execution Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2032566240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Naive &amp; Dynamic Programming Algorithm</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Dynamic</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>test!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>test!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.9760000000000009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.946999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50.863999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>124.69499999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>333.108</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>866.73800000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2240.4670000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4817.5690000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11030.379000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25613.131000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>58058.955999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7C20-4A34-9F8E-72D08D5B4DBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Naive</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>test!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.967000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>106.251</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024.807</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14348.405000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>138930.19899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7C20-4A34-9F8E-72D08D5B4DBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2032566240"/>
+        <c:axId val="1873931104"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2032566240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Nodes in Graph</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1873931104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1873931104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Execution Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2032566240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dynamic Programming Algorithm &amp;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Asymptotic Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14436347700205565"/>
+          <c:y val="0.14725560614378089"/>
+          <c:w val="0.83097976292445763"/>
+          <c:h val="0.6698227341900681"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Execution Time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="13"/>
+              <c:pt idx="0">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>13</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>14</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>16</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>17</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>18</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>19</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>test!$C$2:$C$21</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>test!$C$9:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.9950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9760000000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.946999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.863999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>124.69499999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>333.108</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>866.73800000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2240.4670000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4817.5690000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11030.379000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25613.131000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>58058.955999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ED02-4C08-9D3E-4F52A2093A2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>n^2 * 2^n</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="13"/>
+              <c:pt idx="0">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>13</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>14</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>16</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>17</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>18</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>19</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>test!$E$2:$E$21</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>test!$E$9:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>247808</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>589824</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1384448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3211264</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7372800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37879808</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84934656</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>189267968</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>419430400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>924844032</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2030043136</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4437573632</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ED02-4C08-9D3E-4F52A2093A2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="168161344"/>
+        <c:axId val="12560944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="168161344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Nodes (n)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4451208825461026"/>
+              <c:y val="0.89726998648248157"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="12560944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="12560944"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Logarithmic</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> E</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>xecution Time(ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="8.5064939763905782E-3"/>
+              <c:y val="0.2903853055446835"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="168161344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.2415236430442433E-3"/>
+          <c:y val="0.86593491583750448"/>
+          <c:w val="0.18277887440023638"/>
+          <c:h val="0.13399599601352002"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15520708596806498"/>
+          <c:y val="0.13794512159587058"/>
+          <c:w val="0.82136997215738206"/>
+          <c:h val="0.73606654497757207"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Execution Time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="6"/>
+              <c:pt idx="0">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>test!$B$2:$B$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>test!$B$5:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.967000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106.251</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024.807</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14348.405000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>138930.19899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1622-495F-B52C-1D1A48611591}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>n!</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="6"/>
+              <c:pt idx="0">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>test!$D$2:$D$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>test!$D$5:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5040</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40320</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>362880</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3628800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39916800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>479001600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1622-495F-B52C-1D1A48611591}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="168215344"/>
+        <c:axId val="1873932352"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="168215344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Nodes (n)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4363152510010499"/>
+              <c:y val="0.88888846588278425"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1873932352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1873932352"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Logarithmic Execution Time(ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="168215344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.0876933482533715E-2"/>
+          <c:y val="0.92236126432880305"/>
+          <c:w val="0.28536889372959295"/>
+          <c:h val="6.2761936361855314E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1647,6 +4213,2044 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1685,16 +6289,170 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99FBCFED-7B72-40B2-B10E-DAF278625CA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7F8446F-334E-4914-A350-1CE522170A8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>608011</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>169862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53905EF6-729C-4244-BB72-5A6C67177941}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>608012</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>1587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04DD5E5A-2C80-4BA7-B4F8-34A69D61AE13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C21" totalsRowShown="0">
-  <autoFilter ref="A1:C21"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Number of Nodes"/>
-    <tableColumn id="2" name=" Naive(ms)"/>
-    <tableColumn id="3" name=" Dynamic(ms)"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+  <autoFilter ref="A1:E21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Number of Nodes"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name=" Naive(ms)"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name=" Dynamic(ms)"/>
+    <tableColumn id="4" xr3:uid="{1E73BFD7-FA0F-4D0B-91C9-83A1FD3E3308}" name="O(n!)" dataDxfId="1">
+      <calculatedColumnFormula>FACT(A2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{11D070EF-9B39-4018-AA78-F0B9CA5D8326}" name="O(n^2 * 2^n)" dataDxfId="0">
+      <calculatedColumnFormula>(POWER(A2,2)*POWER(2,A2))</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1996,11 +6754,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2010,7 +6768,7 @@
     <col min="3" max="3" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2020,8 +6778,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>4</v>
       </c>
@@ -2031,8 +6795,16 @@
       <c r="C2">
         <v>0</v>
       </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D21" si="0">FACT(A2)</f>
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E21" si="1">(POWER(A2,2)*POWER(2,A2))</f>
+        <v>256</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>5</v>
       </c>
@@ -2042,8 +6814,16 @@
       <c r="C3">
         <v>0</v>
       </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>6</v>
       </c>
@@ -2053,8 +6833,16 @@
       <c r="C4">
         <v>0</v>
       </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>2304</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>7</v>
       </c>
@@ -2064,8 +6852,16 @@
       <c r="C5">
         <v>0</v>
       </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>5040</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>6272</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>8</v>
       </c>
@@ -2075,8 +6871,16 @@
       <c r="C6">
         <v>0</v>
       </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>40320</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>16384</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>9</v>
       </c>
@@ -2086,8 +6890,16 @@
       <c r="C7">
         <v>0</v>
       </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>362880</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>41472</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>10</v>
       </c>
@@ -2097,8 +6909,16 @@
       <c r="C8">
         <v>0.997</v>
       </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>3628800</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>102400</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>11</v>
       </c>
@@ -2108,8 +6928,16 @@
       <c r="C9">
         <v>1.9950000000000001</v>
       </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>39916800</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>247808</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>12</v>
       </c>
@@ -2119,8 +6947,16 @@
       <c r="C10">
         <v>3.992</v>
       </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>479001600</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>589824</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>13</v>
       </c>
@@ -2130,8 +6966,16 @@
       <c r="C11">
         <v>8.9760000000000009</v>
       </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>6227020800</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>1384448</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>14</v>
       </c>
@@ -2141,8 +6985,16 @@
       <c r="C12">
         <v>19.946999999999999</v>
       </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>87178291200</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>3211264</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>15</v>
       </c>
@@ -2152,8 +7004,16 @@
       <c r="C13">
         <v>50.863999999999997</v>
       </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1307674368000</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>7372800</v>
+      </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>16</v>
       </c>
@@ -2163,8 +7023,16 @@
       <c r="C14">
         <v>124.69499999999999</v>
       </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>20922789888000</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>16777216</v>
+      </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>17</v>
       </c>
@@ -2174,8 +7042,16 @@
       <c r="C15">
         <v>333.108</v>
       </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>355687428096000</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>37879808</v>
+      </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>18</v>
       </c>
@@ -2185,8 +7061,16 @@
       <c r="C16">
         <v>866.73800000000006</v>
       </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>6402373705728000</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>84934656</v>
+      </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>19</v>
       </c>
@@ -2196,8 +7080,16 @@
       <c r="C17">
         <v>2240.4670000000001</v>
       </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1.21645100408832E+17</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>189267968</v>
+      </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>20</v>
       </c>
@@ -2207,8 +7099,16 @@
       <c r="C18">
         <v>4817.5690000000004</v>
       </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>2.43290200817664E+18</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>419430400</v>
+      </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>21</v>
       </c>
@@ -2218,8 +7118,16 @@
       <c r="C19">
         <v>11030.379000000001</v>
       </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>5.109094217170944E+19</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>924844032</v>
+      </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>22</v>
       </c>
@@ -2229,8 +7137,16 @@
       <c r="C20">
         <v>25613.131000000001</v>
       </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1.1240007277776077E+21</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>2030043136</v>
+      </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>23</v>
       </c>
@@ -2239,6 +7155,14 @@
       </c>
       <c r="C21">
         <v>58058.955999999998</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>2.5852016738884978E+22</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>4437573632</v>
       </c>
     </row>
   </sheetData>
